--- a/data/output/FV2304_FV2210/UTILMD/11112.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11112.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7692" uniqueCount="502">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7713" uniqueCount="502">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1658,6 +1658,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U352" totalsRowShown="0">
+  <autoFilter ref="A1:U352"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1947,7 +1977,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -18250,5 +18283,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11112.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11112.xlsx
@@ -3107,7 +3107,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -5441,7 +5441,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5643,7 +5643,7 @@
         <v>464</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5795,7 +5795,7 @@
         <v>465</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5985,7 +5985,7 @@
       </c>
       <c r="K61" s="2"/>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6175,7 +6175,7 @@
         <v>467</v>
       </c>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6373,7 +6373,7 @@
         <v>470</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6577,7 +6577,7 @@
         <v>471</v>
       </c>
       <c r="L73" s="4"/>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -6835,7 +6835,7 @@
         <v>472</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -7039,7 +7039,7 @@
         <v>471</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7241,7 +7241,7 @@
         <v>473</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7771,7 +7771,7 @@
         <v>474</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7911,7 +7911,7 @@
         <v>475</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -8061,7 +8061,7 @@
         <v>475</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -8317,7 +8317,7 @@
         <v>476</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8505,7 +8505,7 @@
         <v>474</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8793,7 +8793,7 @@
         <v>474</v>
       </c>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -9191,7 +9191,7 @@
         <v>478</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9401,7 +9401,7 @@
         <v>470</v>
       </c>
       <c r="L130" s="4"/>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N130" s="2" t="s">
@@ -9743,7 +9743,7 @@
         <v>475</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -10085,7 +10085,7 @@
         <v>480</v>
       </c>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N144" s="2" t="s">
@@ -10223,7 +10223,7 @@
       </c>
       <c r="K147" s="2"/>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10427,7 +10427,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10841,7 +10841,7 @@
         <v>475</v>
       </c>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -11049,7 +11049,7 @@
         <v>482</v>
       </c>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -11255,7 +11255,7 @@
         <v>483</v>
       </c>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11543,7 +11543,7 @@
         <v>483</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11843,7 +11843,7 @@
         <v>484</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12131,7 +12131,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12335,7 +12335,7 @@
         <v>486</v>
       </c>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="K198" s="2"/>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="4"/>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N204" s="2" t="s">
@@ -13217,7 +13217,7 @@
         <v>487</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13425,7 +13425,7 @@
         <v>488</v>
       </c>
       <c r="L211" s="4"/>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N211" s="2" t="s">
@@ -13631,7 +13631,7 @@
         <v>489</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13771,7 +13771,7 @@
         <v>490</v>
       </c>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13977,7 +13977,7 @@
         <v>491</v>
       </c>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -14115,7 +14115,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14259,7 +14259,7 @@
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14395,7 +14395,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -15031,7 +15031,7 @@
         <v>494</v>
       </c>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15169,7 +15169,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -15313,7 +15313,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -15557,7 +15557,7 @@
         <v>495</v>
       </c>
       <c r="L254" s="4"/>
-      <c r="M254" s="2" t="s">
+      <c r="M254" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N254" s="2" t="s">
@@ -15937,7 +15937,7 @@
         <v>497</v>
       </c>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -16075,7 +16075,7 @@
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="4"/>
-      <c r="M265" s="2" t="s">
+      <c r="M265" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N265" s="2" t="s">
@@ -16223,7 +16223,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -16509,7 +16509,7 @@
         <v>498</v>
       </c>
       <c r="L274" s="4"/>
-      <c r="M274" s="2" t="s">
+      <c r="M274" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N274" s="2" t="s">
@@ -16647,7 +16647,7 @@
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="4"/>
-      <c r="M277" s="2" t="s">
+      <c r="M277" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N277" s="2" t="s">
@@ -16799,7 +16799,7 @@
         <v>471</v>
       </c>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N280" s="2" t="s">
@@ -16947,7 +16947,7 @@
         <v>471</v>
       </c>
       <c r="L283" s="4"/>
-      <c r="M283" s="2" t="s">
+      <c r="M283" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N283" s="2" t="s">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="4"/>
-      <c r="M286" s="2" t="s">
+      <c r="M286" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N286" s="2" t="s">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="K291" s="2"/>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -17485,7 +17485,7 @@
         <v>476</v>
       </c>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -17773,7 +17773,7 @@
         <v>500</v>
       </c>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -18069,7 +18069,7 @@
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -18219,7 +18219,7 @@
         <v>500</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -18719,7 +18719,7 @@
       </c>
       <c r="K319" s="2"/>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -18869,7 +18869,7 @@
         <v>500</v>
       </c>
       <c r="L322" s="4"/>
-      <c r="M322" s="2" t="s">
+      <c r="M322" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N322" s="2" t="s">
@@ -19369,7 +19369,7 @@
         <v>500</v>
       </c>
       <c r="L332" s="4"/>
-      <c r="M332" s="2" t="s">
+      <c r="M332" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N332" s="2" t="s">
@@ -19869,7 +19869,7 @@
         <v>471</v>
       </c>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -20259,7 +20259,7 @@
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="4"/>
-      <c r="M350" s="2" t="s">
+      <c r="M350" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N350" s="2"/>
